--- a/Config/doc/CanIf.xlsx
+++ b/Config/doc/CanIf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\AUTOSAR_LIB\Config\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51A5258-B2A7-4553-846D-DB7E0EE43FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16029F46-CD63-4B2B-B52E-BFBBF319733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6012" yWindow="3648" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9744" yWindow="3600" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>CanIf_Hth_Can_Controler_Config</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>CanIf_Hrh_Can_Controller_Config</t>
+  </si>
+  <si>
+    <t>CanIf_Hrh_Can_Controler_Config_Group_1</t>
+  </si>
+  <si>
+    <t>CanIf_Hrh_HW_Id: 0</t>
   </si>
 </sst>
 </file>
@@ -114,13 +123,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -404,20 +416,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.88671875" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -427,7 +439,7 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -436,7 +448,7 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -480,7 +492,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">

--- a/Config/doc/CanIf.xlsx
+++ b/Config/doc/CanIf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\AUTOSAR_LIB\Config\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16029F46-CD63-4B2B-B52E-BFBBF319733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A54FD54-D78B-4C46-9CD3-8BFAAF246EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9744" yWindow="3600" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="3228" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
